--- a/Aurora/Estimation/Estimation.xlsx
+++ b/Aurora/Estimation/Estimation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1139305C-00BB-437B-AF7A-4EDC488999FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D81352-3DDA-4594-8921-E4B3DFBE0825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="114">
   <si>
     <t>S.No</t>
   </si>
@@ -53,7 +53,10 @@
     <t>Integration Testing</t>
   </si>
   <si>
-    <t>HTML preparation</t>
+    <t>HTML preparation
+Base Layout        - 5Hrs
+Page Design        - 2hrs
+Allignment          - 3hrs</t>
   </si>
   <si>
     <t>Compatibility testing</t>
@@ -92,16 +95,19 @@
     <t>Spam Report(Admin)</t>
   </si>
   <si>
-    <t xml:space="preserve">HTML preparation </t>
+    <t>HTML preparation
+Base Layout       - 0.5hrs
+Page Design       - 3hrs
+Allignment        - 3hrs</t>
   </si>
   <si>
     <t>Web API - Service Implementation
-i).GetQueriesByVerifyStatus       -2hrs
-ii).GetSpamCountForQueryID    -1.5hrs
-iii).DeleteSpamsByQueryID         -1.75hrs
-iv).RemoveQueryByQueryID      -1.75hrs
-v).ApproveSpam                           -1.5hrs
-vi).RejectSpam                              -1.5hrs</t>
+i).GetQueriesByVerifyStatus       -3hrs
+ii).GetSpamCountForQueryID    -2.5hrs
+iii).DeleteSpamsByQueryID         -2.75hrs
+iv).RemoveQueryByQueryID      -2.75hrs
+v).ApproveSpam                           -2.5hrs
+vi).RejectSpam                              -2.5hrs</t>
   </si>
   <si>
     <t>Service Validations , Exception and Logging
@@ -125,6 +131,12 @@
     <t>Admin Dashboard</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       -  2Hrs
+Page Design       -  3hrs
+Allignment        -   3hrs</t>
+  </si>
+  <si>
     <t>Web API - Service Implementation
 i).GetArticles                          -2hrs
 ii).GetUsers                            -2hrs
@@ -133,8 +145,8 @@
   </si>
   <si>
     <t>Service Validations , Exception and Logging
-i).GetArticles                          -1hr
-ii).GetUsers                            -1hr
+i).GetArticles                          -1.5hr
+ii).GetUsers                            -1.5hr
 iii).Getusers(isreviewer)      -1.5hr
 iv).GetQueries(issolved)      -1.5hr</t>
   </si>
@@ -149,6 +161,12 @@
     <t>Specific Query</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5hrs
+Page Design       - 3hrs
+Allignment         - 6hrs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Web API - Service Implementation                                                                                                      </t>
   </si>
   <si>
@@ -170,9 +188,21 @@
     <t>Raise Query</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5hrs
+Page Design       - 3hrs
+Allignment         -  2hrs</t>
+  </si>
+  <si>
     <t>Report Spam(User)</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       -  0.5hrs 
+Page Design       -  2hrs
+Allignment        -   2hrs</t>
+  </si>
+  <si>
     <t>1.ReportSpam</t>
   </si>
   <si>
@@ -182,15 +212,39 @@
     <t>My Profile</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       -  0.5
+Page Design       -  3hrs
+Allignment        -  3hrs</t>
+  </si>
+  <si>
     <t>Login</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5hrs
+Page Design       - 3hrs
+Allignment        -  2hrs</t>
+  </si>
+  <si>
     <t>Register Page</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       -  0.5hrs
+Page Design       -  2hrs
+Allignment        -   2hrs</t>
+  </si>
+  <si>
     <t>Specific Article View</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5hrs
+Page Design       - 4hrs
+Allignment        -  2hrs</t>
+  </si>
+  <si>
     <t>1.Get Article by ID</t>
   </si>
   <si>
@@ -209,6 +263,12 @@
     <t>User Verification</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5hr 
+Page Design       -  1.5hr
+Allignment         -   1.5hr</t>
+  </si>
+  <si>
     <t>Web API Service Implementation</t>
   </si>
   <si>
@@ -224,6 +284,12 @@
     <t>Employees</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5hr
+Page Design       -  2hrs
+Allignment        -  1hr</t>
+  </si>
+  <si>
     <t>1.getusers</t>
   </si>
   <si>
@@ -239,12 +305,24 @@
     <t>Particular Article Review</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5
+Page Design       -  4hrs
+Allignment        - 1hr</t>
+  </si>
+  <si>
     <t>1.UpdateArticleStatus</t>
   </si>
   <si>
     <t>To Review</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5hrs
+Page Design       -  4hrs
+Allignment        -  2hrs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Web API - Service Implementation </t>
   </si>
   <si>
@@ -257,6 +335,12 @@
     <t>Reviewer Dashboard</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5hrs
+Page Design       -  2hr
+Allignment        -  3hr</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Web API - Service Implementation</t>
   </si>
   <si>
@@ -266,6 +350,12 @@
     <t>Article Reviewed</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5hrs
+Page Design       -  2hrs
+Allignment        -   1hr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Web API Integration </t>
   </si>
   <si>
@@ -275,15 +365,33 @@
     <t>Trending Articles</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       -  0.5hrs
+Page Design       -  2hrs
+Allignment        -  1hr</t>
+  </si>
+  <si>
     <t>Latest Queries</t>
   </si>
   <si>
     <t>Trending Queries</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5hrs
+Page Design       -  1hr
+Allignment        -  1hr</t>
+  </si>
+  <si>
     <t>Articles</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       -  0.5hrs
+Page Design       -  3hrs
+Allignment        -  1hr</t>
+  </si>
+  <si>
     <t>1.Get Articles()</t>
   </si>
   <si>
@@ -299,6 +407,12 @@
     <t>Queries</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5hrs
+Page Design       -  3hrs
+Allignment        -  1hr</t>
+  </si>
+  <si>
     <t>Get Queries()</t>
   </si>
   <si>
@@ -311,25 +425,46 @@
     <t>My Articles</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5hrs
+Page Design       -  2hrs
+Allignment        -  0.5hr</t>
+  </si>
+  <si>
     <t>My Queries</t>
   </si>
   <si>
     <t>Create Article</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5hrs
+Page Design       -  4hrs
+Allignment        -  3hrs</t>
+  </si>
+  <si>
     <t>1.Create Article</t>
   </si>
   <si>
     <t>Update Article</t>
   </si>
   <si>
+    <t>HTML preparation
+Base Layout       - 0.5hrs
+Page Design       -  2hrs
+Allignment        -  2hrs</t>
+  </si>
+  <si>
     <t>1.Update Article</t>
   </si>
   <si>
-    <t>Specific Query View</t>
-  </si>
-  <si>
     <t>Rejection page for article</t>
+  </si>
+  <si>
+    <t>HTML preparation
+Base Layout       - 0.5hrs
+Page Design       -  2hrs 
+Allignment        -    1hr</t>
   </si>
   <si>
     <t>1.SendNotification</t>
@@ -723,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J448"/>
+  <dimension ref="A1:J402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="D255" sqref="D255"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -772,12 +907,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="C3" t="s">
+    <row r="3" spans="1:10" ht="80.25" customHeight="1">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>9</v>
@@ -856,7 +991,7 @@
       </c>
       <c r="D13" s="1">
         <f>SUM(D2:D12)</f>
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -881,12 +1016,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17.25" customHeight="1">
+    <row r="18" spans="1:10" ht="73.5" customHeight="1">
       <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D18">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J18" t="s">
         <v>9</v>
@@ -897,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -908,7 +1043,7 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -959,14 +1094,13 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" customFormat="1"/>
     <row r="28" spans="1:10">
       <c r="C28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="1">
         <f>SUM(D17:D27)</f>
-        <v>37.5</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -986,12 +1120,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="C32" t="s">
+    <row r="32" spans="1:10" ht="78.75" customHeight="1">
+      <c r="C32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
         <v>8</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
       </c>
       <c r="J32" t="s">
         <v>9</v>
@@ -1010,7 +1144,7 @@
     </row>
     <row r="34" spans="1:10" ht="75.75" customHeight="1">
       <c r="C34" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -1034,10 +1168,10 @@
     </row>
     <row r="37" spans="1:10" ht="75" customHeight="1">
       <c r="C37" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1045,7 +1179,7 @@
         <v>16</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1058,7 +1192,7 @@
     </row>
     <row r="40" spans="1:10" ht="76.5" customHeight="1">
       <c r="C40" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -1070,7 +1204,7 @@
       </c>
       <c r="D42" s="1">
         <f>SUM(D31:D41)</f>
-        <v>30</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1082,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1094,12 +1228,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="C46" t="s">
-        <v>8</v>
+    <row r="46" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C46" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="J46" t="s">
         <v>9</v>
@@ -1110,13 +1244,13 @@
         <v>10</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:10" customFormat="1">
+    <row r="48" spans="1:10">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -1124,52 +1258,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" customFormat="1" ht="18.75" customHeight="1">
+    <row r="49" spans="1:10" ht="18.75" customHeight="1">
       <c r="C49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1">
       <c r="C50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1">
       <c r="C51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="C52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="C53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="C54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" customFormat="1">
+    <row r="55" spans="1:10">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -1177,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" customFormat="1">
+    <row r="56" spans="1:10">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -1185,7 +1319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:10" customFormat="1">
+    <row r="57" spans="1:10">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -1193,7 +1327,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" customFormat="1">
+    <row r="58" spans="1:10">
       <c r="C58" t="s">
         <v>17</v>
       </c>
@@ -1201,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" customFormat="1">
+    <row r="59" spans="1:10">
       <c r="C59" t="s">
         <v>18</v>
       </c>
@@ -1209,22 +1343,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" customFormat="1"/>
-    <row r="61" spans="1:10" customFormat="1">
+    <row r="61" spans="1:10">
       <c r="C61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="1">
         <f>SUM(D45:D60)</f>
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" customFormat="1">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1236,29 +1369,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:10" customFormat="1">
-      <c r="C65" t="s">
-        <v>8</v>
+    <row r="65" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C65" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J65" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:10" customFormat="1">
+    <row r="66" spans="1:10">
       <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:10" customFormat="1">
+    <row r="67" spans="1:10">
       <c r="C67" t="s">
         <v>12</v>
       </c>
@@ -1266,15 +1399,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" customFormat="1">
+    <row r="68" spans="1:10">
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="D68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" customFormat="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="C69" t="s">
         <v>14</v>
       </c>
@@ -1282,15 +1415,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" customFormat="1">
+    <row r="70" spans="1:10">
       <c r="C70" t="s">
         <v>15</v>
       </c>
       <c r="D70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="C71" t="s">
         <v>16</v>
       </c>
@@ -1298,7 +1431,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:10" customFormat="1">
+    <row r="72" spans="1:10">
       <c r="C72" t="s">
         <v>17</v>
       </c>
@@ -1306,7 +1439,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:10" customFormat="1">
+    <row r="73" spans="1:10">
       <c r="C73" t="s">
         <v>18</v>
       </c>
@@ -1314,22 +1447,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" customFormat="1"/>
-    <row r="75" spans="1:10" customFormat="1">
+    <row r="75" spans="1:10">
       <c r="C75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="1">
         <f>SUM(D64:D74)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" customFormat="1">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -1341,50 +1473,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:10" customFormat="1">
-      <c r="C79" t="s">
-        <v>8</v>
+    <row r="79" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C79" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J79" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:10" customFormat="1">
+    <row r="80" spans="1:10">
       <c r="C80" t="s">
         <v>10</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J80" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:10" customFormat="1">
+    <row r="81" spans="1:10">
       <c r="C81" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" customFormat="1">
+    <row r="82" spans="1:10">
       <c r="C82" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="C83" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="C84" t="s">
         <v>14</v>
       </c>
@@ -1392,15 +1524,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" customFormat="1">
+    <row r="85" spans="1:10">
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -1408,7 +1540,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:10" customFormat="1">
+    <row r="87" spans="1:10">
       <c r="C87" t="s">
         <v>17</v>
       </c>
@@ -1416,7 +1548,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:10" customFormat="1">
+    <row r="88" spans="1:10">
       <c r="C88" t="s">
         <v>18</v>
       </c>
@@ -1424,21 +1556,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:10" customFormat="1">
+    <row r="89" spans="1:10">
       <c r="C89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="1">
         <f>SUM(D78:D88)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" customFormat="1">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -1450,37 +1582,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:10" customFormat="1">
-      <c r="C93" t="s">
-        <v>8</v>
+    <row r="93" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C93" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="J93" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:10" customFormat="1">
+    <row r="94" spans="1:10">
       <c r="C94" t="s">
         <v>10</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:10" customFormat="1">
+    <row r="95" spans="1:10">
       <c r="C95" t="s">
         <v>12</v>
       </c>
       <c r="D95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="C96" t="s">
         <v>13</v>
       </c>
@@ -1488,7 +1620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:10" customFormat="1">
+    <row r="97" spans="1:10">
       <c r="C97" t="s">
         <v>14</v>
       </c>
@@ -1496,15 +1628,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" customFormat="1">
+    <row r="98" spans="1:10">
       <c r="C98" t="s">
         <v>15</v>
       </c>
       <c r="D98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" customFormat="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="C99" t="s">
         <v>16</v>
       </c>
@@ -1512,7 +1644,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:10" customFormat="1">
+    <row r="100" spans="1:10">
       <c r="C100" t="s">
         <v>17</v>
       </c>
@@ -1520,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" customFormat="1">
+    <row r="101" spans="1:10">
       <c r="C101" t="s">
         <v>18</v>
       </c>
@@ -1528,26 +1660,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" customFormat="1"/>
-    <row r="103" spans="1:10" customFormat="1">
+    <row r="103" spans="1:10">
       <c r="C103" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="1">
         <f>SUM(D92:D102)</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" customFormat="1">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
     </row>
-    <row r="106" spans="1:10" customFormat="1">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
@@ -1559,61 +1690,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:10" customFormat="1">
-      <c r="C107" t="s">
-        <v>8</v>
+    <row r="107" spans="1:10" ht="72.75" customHeight="1">
+      <c r="C107" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="J107" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:10" customFormat="1">
+    <row r="108" spans="1:10">
       <c r="C108" t="s">
         <v>10</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J108" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:10" customFormat="1">
+    <row r="109" spans="1:10">
       <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="C110" t="s">
         <v>12</v>
       </c>
-      <c r="D109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" customFormat="1">
-      <c r="C110" t="s">
-        <v>13</v>
-      </c>
       <c r="D110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="C111" t="s">
         <v>14</v>
       </c>
       <c r="D111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="C112" t="s">
         <v>15</v>
       </c>
       <c r="D112">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" customFormat="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="C113" t="s">
         <v>16</v>
       </c>
@@ -1621,7 +1752,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:10" customFormat="1">
+    <row r="114" spans="1:10">
       <c r="C114" t="s">
         <v>17</v>
       </c>
@@ -1629,54 +1760,52 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:10" customFormat="1">
+    <row r="115" spans="1:10">
       <c r="C115" t="s">
         <v>18</v>
       </c>
       <c r="D115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" customFormat="1"/>
-    <row r="117" spans="1:10" customFormat="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="C117" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D117" s="3">
         <f>SUM(D106:D116)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" customFormat="1"/>
-    <row r="120" spans="1:10" customFormat="1">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:10" customFormat="1">
-      <c r="C121" t="s">
-        <v>8</v>
+    <row r="121" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C121" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="J121" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:10" customFormat="1">
+    <row r="122" spans="1:10">
       <c r="C122" t="s">
         <v>10</v>
       </c>
@@ -1687,7 +1816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:10" customFormat="1">
+    <row r="123" spans="1:10">
       <c r="C123" t="s">
         <v>12</v>
       </c>
@@ -1695,7 +1824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:10" customFormat="1">
+    <row r="124" spans="1:10">
       <c r="C124" t="s">
         <v>13</v>
       </c>
@@ -1703,23 +1832,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:10" customFormat="1">
+    <row r="125" spans="1:10">
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="C126" t="s">
         <v>15</v>
       </c>
       <c r="D126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" customFormat="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="C127" t="s">
         <v>16</v>
       </c>
@@ -1727,40 +1856,37 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:10" customFormat="1">
+    <row r="128" spans="1:10">
       <c r="C128" t="s">
         <v>17</v>
       </c>
       <c r="D128">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" customFormat="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="C129" t="s">
         <v>18</v>
       </c>
       <c r="D129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" customFormat="1"/>
-    <row r="131" spans="1:10" customFormat="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="C131" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="1">
         <f>SUM(D120:D130)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" customFormat="1"/>
-    <row r="133" spans="1:10" customFormat="1"/>
-    <row r="134" spans="1:10" customFormat="1">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
@@ -1772,18 +1898,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:10" customFormat="1">
-      <c r="C135" t="s">
-        <v>8</v>
+    <row r="135" spans="1:10" ht="75" customHeight="1">
+      <c r="C135" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="J135" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:10" customFormat="1">
+    <row r="136" spans="1:10">
       <c r="C136" t="s">
         <v>10</v>
       </c>
@@ -1794,7 +1920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:10" customFormat="1">
+    <row r="137" spans="1:10">
       <c r="C137" t="s">
         <v>12</v>
       </c>
@@ -1802,52 +1928,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:10" customFormat="1">
+    <row r="138" spans="1:10">
       <c r="C138" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:10" customFormat="1">
+    <row r="139" spans="1:10">
       <c r="C139" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D139">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:10" customFormat="1">
+    <row r="140" spans="1:10">
       <c r="C140" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D140">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:10" customFormat="1">
+    <row r="141" spans="1:10">
       <c r="C141" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:10" customFormat="1">
+    <row r="142" spans="1:10">
       <c r="C142" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D142">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:10" customFormat="1">
+    <row r="143" spans="1:10">
       <c r="C143" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D143">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" customFormat="1">
+    <row r="144" spans="1:10">
       <c r="C144" t="s">
         <v>14</v>
       </c>
@@ -1855,7 +1981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:10" customFormat="1">
+    <row r="145" spans="1:10">
       <c r="C145" t="s">
         <v>15</v>
       </c>
@@ -1863,7 +1989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:10" customFormat="1">
+    <row r="146" spans="1:10">
       <c r="C146" t="s">
         <v>16</v>
       </c>
@@ -1871,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" customFormat="1">
+    <row r="147" spans="1:10">
       <c r="C147" t="s">
         <v>17</v>
       </c>
@@ -1879,7 +2005,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:10" customFormat="1">
+    <row r="148" spans="1:10">
       <c r="C148" t="s">
         <v>18</v>
       </c>
@@ -1887,22 +2013,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:10" customFormat="1"/>
-    <row r="150" spans="1:10" customFormat="1">
+    <row r="150" spans="1:10">
       <c r="C150" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D150" s="1">
         <f>SUM(D134:D149)</f>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" customFormat="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153">
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C153" t="s">
         <v>6</v>
@@ -1914,58 +2039,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:10" customFormat="1">
-      <c r="C154" t="s">
-        <v>8</v>
+    <row r="154" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C154" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J154" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:10" customFormat="1">
+    <row r="155" spans="1:10">
       <c r="C155" t="s">
         <v>10</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J155" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:10" customFormat="1" ht="17.25" customHeight="1">
+    <row r="156" spans="1:10" ht="17.25" customHeight="1">
       <c r="C156" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" customFormat="1" ht="13.5" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="13.5" customHeight="1">
       <c r="C157" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D157">
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
+    <row r="158" spans="1:10" ht="15.75" customHeight="1">
       <c r="C158" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D158">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:10" customFormat="1">
+    <row r="159" spans="1:10">
       <c r="C159" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D159">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:10" customFormat="1">
+    <row r="160" spans="1:10">
       <c r="C160" t="s">
         <v>14</v>
       </c>
@@ -1973,15 +2098,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:10" customFormat="1">
+    <row r="161" spans="1:10">
       <c r="C161" t="s">
         <v>15</v>
       </c>
       <c r="D161">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="C162" t="s">
         <v>16</v>
       </c>
@@ -1989,7 +2114,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="163" spans="1:10" customFormat="1">
+    <row r="163" spans="1:10">
       <c r="C163" t="s">
         <v>17</v>
       </c>
@@ -1997,7 +2122,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="164" spans="1:10" customFormat="1">
+    <row r="164" spans="1:10">
       <c r="C164" t="s">
         <v>18</v>
       </c>
@@ -2005,24 +2130,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:10" customFormat="1"/>
-    <row r="166" spans="1:10" customFormat="1">
+    <row r="166" spans="1:10">
       <c r="C166" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D166" s="1">
         <f>SUM(D153:D165)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" customFormat="1"/>
-    <row r="168" spans="1:10" customFormat="1"/>
-    <row r="169" spans="1:10" customFormat="1">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169">
         <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
@@ -2034,74 +2156,74 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:10" customFormat="1">
-      <c r="C170" t="s">
-        <v>8</v>
+    <row r="170" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C170" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J170" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:10" customFormat="1">
+    <row r="171" spans="1:10">
       <c r="C171" t="s">
         <v>10</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:10" customFormat="1" ht="15" customHeight="1">
+    <row r="172" spans="1:10" ht="15" customHeight="1">
       <c r="C172" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" customFormat="1" ht="17.25" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="17.25" customHeight="1">
       <c r="C173" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" customFormat="1" ht="15" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="15" customHeight="1">
       <c r="C174" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" customFormat="1" ht="16.5" customHeight="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="16.5" customHeight="1">
       <c r="C175" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D175">
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:10" customFormat="1" ht="12.75" customHeight="1">
+    <row r="176" spans="1:10" ht="12.75" customHeight="1">
       <c r="C176" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D176">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:10" customFormat="1">
+    <row r="177" spans="1:10">
       <c r="C177" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D177">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="C178" t="s">
         <v>14</v>
       </c>
@@ -2109,15 +2231,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:10" customFormat="1">
+    <row r="179" spans="1:10">
       <c r="C179" t="s">
         <v>15</v>
       </c>
       <c r="D179">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="C180" t="s">
         <v>16</v>
       </c>
@@ -2125,7 +2247,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="181" spans="1:10" customFormat="1">
+    <row r="181" spans="1:10">
       <c r="C181" t="s">
         <v>17</v>
       </c>
@@ -2133,7 +2255,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="182" spans="1:10" customFormat="1">
+    <row r="182" spans="1:10">
       <c r="C182" t="s">
         <v>18</v>
       </c>
@@ -2141,24 +2263,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:10" customFormat="1"/>
-    <row r="184" spans="1:10" customFormat="1">
+    <row r="184" spans="1:10">
       <c r="C184" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D184" s="1">
         <f>SUM(D169:D183)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" customFormat="1"/>
-    <row r="186" spans="1:10" customFormat="1"/>
-    <row r="187" spans="1:10" customFormat="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187">
         <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -2170,42 +2289,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:10" customFormat="1">
-      <c r="C188" t="s">
-        <v>8</v>
+    <row r="188" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C188" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="J188" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:10" customFormat="1">
+    <row r="189" spans="1:10">
       <c r="C189" t="s">
         <v>10</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:10" customFormat="1">
+    <row r="190" spans="1:10">
       <c r="C190" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:10" customFormat="1">
+    <row r="191" spans="1:10">
       <c r="C191" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D191">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:10" customFormat="1">
+    <row r="192" spans="1:10">
       <c r="C192" t="s">
         <v>12</v>
       </c>
@@ -2213,7 +2332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:10" customFormat="1">
+    <row r="193" spans="1:10">
       <c r="C193" t="s">
         <v>14</v>
       </c>
@@ -2221,23 +2340,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:10" customFormat="1">
+    <row r="194" spans="1:10">
       <c r="C194" t="s">
         <v>15</v>
       </c>
       <c r="D194">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="C195" t="s">
         <v>16</v>
       </c>
       <c r="D195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" customFormat="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="C196" t="s">
         <v>17</v>
       </c>
@@ -2245,7 +2364,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="197" spans="1:10" customFormat="1">
+    <row r="197" spans="1:10">
       <c r="C197" t="s">
         <v>18</v>
       </c>
@@ -2253,22 +2372,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:10" customFormat="1">
+    <row r="198" spans="1:10">
       <c r="C198" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D198" s="1">
         <f>SUM(D187:D197)</f>
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" customFormat="1"/>
-    <row r="201" spans="1:10" customFormat="1">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201">
         <v>14</v>
       </c>
       <c r="B201" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -2280,50 +2398,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:10" customFormat="1">
-      <c r="C202" t="s">
-        <v>8</v>
+    <row r="202" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C202" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="J202" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:10" customFormat="1">
+    <row r="203" spans="1:10">
       <c r="C203" t="s">
         <v>10</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J203" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:10" customFormat="1">
+    <row r="204" spans="1:10">
       <c r="C204" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" customFormat="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="C205" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D205">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:10" customFormat="1">
+    <row r="206" spans="1:10">
       <c r="C206" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D206">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:10" customFormat="1">
+    <row r="207" spans="1:10">
       <c r="C207" t="s">
         <v>12</v>
       </c>
@@ -2331,7 +2449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:10" customFormat="1">
+    <row r="208" spans="1:10">
       <c r="C208" t="s">
         <v>14</v>
       </c>
@@ -2339,15 +2457,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:10" customFormat="1">
+    <row r="209" spans="1:10">
       <c r="C209" t="s">
         <v>15</v>
       </c>
       <c r="D209">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" customFormat="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="C210" t="s">
         <v>16</v>
       </c>
@@ -2355,7 +2473,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="211" spans="1:10" customFormat="1">
+    <row r="211" spans="1:10">
       <c r="C211" t="s">
         <v>17</v>
       </c>
@@ -2363,7 +2481,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="212" spans="1:10" customFormat="1">
+    <row r="212" spans="1:10">
       <c r="C212" t="s">
         <v>18</v>
       </c>
@@ -2371,23 +2489,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:10" customFormat="1">
+    <row r="213" spans="1:10">
       <c r="C213" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D213" s="1">
         <f>SUM(D201:D212)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" customFormat="1"/>
-    <row r="215" spans="1:10" customFormat="1"/>
-    <row r="216" spans="1:10" customFormat="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216">
         <v>15</v>
       </c>
       <c r="B216" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -2399,42 +2515,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:10" customFormat="1">
-      <c r="C217" t="s">
-        <v>8</v>
+    <row r="217" spans="1:10" ht="72.75" customHeight="1">
+      <c r="C217" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="J217" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:10" customFormat="1">
+    <row r="218" spans="1:10">
       <c r="C218" t="s">
         <v>10</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J218" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:10" customFormat="1">
+    <row r="219" spans="1:10">
       <c r="C219" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" customFormat="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="C220" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D220">
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:10" customFormat="1">
+    <row r="221" spans="1:10">
       <c r="C221" t="s">
         <v>12</v>
       </c>
@@ -2442,7 +2558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:10" customFormat="1">
+    <row r="222" spans="1:10">
       <c r="C222" t="s">
         <v>14</v>
       </c>
@@ -2450,7 +2566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:10" customFormat="1">
+    <row r="223" spans="1:10">
       <c r="C223" t="s">
         <v>15</v>
       </c>
@@ -2458,7 +2574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:10" customFormat="1">
+    <row r="224" spans="1:10">
       <c r="C224" t="s">
         <v>16</v>
       </c>
@@ -2466,7 +2582,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="225" spans="1:10" customFormat="1">
+    <row r="225" spans="1:10">
       <c r="C225" t="s">
         <v>17</v>
       </c>
@@ -2474,7 +2590,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="226" spans="1:10" customFormat="1">
+    <row r="226" spans="1:10">
       <c r="C226" t="s">
         <v>18</v>
       </c>
@@ -2482,23 +2598,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:10" customFormat="1">
+    <row r="227" spans="1:10">
       <c r="C227" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D227" s="1">
         <f>SUM(D216:D226)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" customFormat="1"/>
-    <row r="229" spans="1:10" customFormat="1"/>
-    <row r="230" spans="1:10" customFormat="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230">
         <v>16</v>
       </c>
       <c r="B230" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
@@ -2510,58 +2624,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:10" customFormat="1">
-      <c r="C231" t="s">
-        <v>8</v>
+    <row r="231" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C231" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D231">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J231" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:10" customFormat="1">
+    <row r="232" spans="1:10">
       <c r="C232" t="s">
         <v>10</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:10" customFormat="1">
+    <row r="233" spans="1:10">
       <c r="C233" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:10" customFormat="1">
+    <row r="234" spans="1:10">
       <c r="C234" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
       <c r="C235" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
       <c r="C236" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D236">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
       <c r="C237" t="s">
         <v>14</v>
       </c>
@@ -2569,15 +2683,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:10" customFormat="1">
+    <row r="238" spans="1:10">
       <c r="C238" t="s">
         <v>15</v>
       </c>
       <c r="D238">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
       <c r="C239" t="s">
         <v>16</v>
       </c>
@@ -2585,7 +2699,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="240" spans="1:10" customFormat="1">
+    <row r="240" spans="1:10">
       <c r="C240" t="s">
         <v>17</v>
       </c>
@@ -2593,7 +2707,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="241" spans="1:10" customFormat="1">
+    <row r="241" spans="1:10">
       <c r="C241" t="s">
         <v>18</v>
       </c>
@@ -2601,23 +2715,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:10" customFormat="1">
+    <row r="242" spans="1:10">
       <c r="C242" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D242" s="1">
         <f>SUM(D230:D241)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" customFormat="1"/>
-    <row r="244" spans="1:10" customFormat="1"/>
-    <row r="245" spans="1:10" customFormat="1">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
       <c r="A245">
         <v>17</v>
       </c>
       <c r="B245" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
@@ -2629,37 +2741,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:10" customFormat="1">
-      <c r="C246" t="s">
-        <v>8</v>
+    <row r="246" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C246" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D246">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J246" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:10" customFormat="1">
+    <row r="247" spans="1:10">
       <c r="C247" t="s">
         <v>10</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:10" customFormat="1">
+    <row r="248" spans="1:10">
       <c r="C248" t="s">
         <v>13</v>
       </c>
       <c r="D248">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" customFormat="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
       <c r="C249" t="s">
         <v>12</v>
       </c>
@@ -2667,7 +2779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:10" customFormat="1">
+    <row r="250" spans="1:10">
       <c r="C250" t="s">
         <v>14</v>
       </c>
@@ -2675,7 +2787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:10" customFormat="1">
+    <row r="251" spans="1:10">
       <c r="C251" t="s">
         <v>15</v>
       </c>
@@ -2683,7 +2795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:10" customFormat="1">
+    <row r="252" spans="1:10">
       <c r="C252" t="s">
         <v>16</v>
       </c>
@@ -2691,7 +2803,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="253" spans="1:10" customFormat="1">
+    <row r="253" spans="1:10">
       <c r="C253" t="s">
         <v>17</v>
       </c>
@@ -2699,7 +2811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="254" spans="1:10" customFormat="1">
+    <row r="254" spans="1:10">
       <c r="C254" t="s">
         <v>18</v>
       </c>
@@ -2707,23 +2819,21 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="255" spans="1:10" customFormat="1">
+    <row r="255" spans="1:10">
       <c r="C255" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D255" s="4">
         <f>SUM(D245:D254)</f>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" customFormat="1"/>
-    <row r="257" spans="1:10" customFormat="1"/>
-    <row r="258" spans="1:10" customFormat="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
       <c r="A258">
         <v>18</v>
       </c>
       <c r="B258" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
@@ -2735,37 +2845,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:10" customFormat="1">
-      <c r="C259" t="s">
-        <v>8</v>
+    <row r="259" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C259" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="D259">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J259" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:10" customFormat="1">
+    <row r="260" spans="1:10">
       <c r="C260" t="s">
         <v>10</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J260" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:10" customFormat="1">
+    <row r="261" spans="1:10">
       <c r="C261" t="s">
         <v>13</v>
       </c>
       <c r="D261">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" customFormat="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
       <c r="C262" s="6" t="s">
         <v>12</v>
       </c>
@@ -2773,7 +2883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:10" customFormat="1">
+    <row r="263" spans="1:10">
       <c r="C263" t="s">
         <v>14</v>
       </c>
@@ -2781,7 +2891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:10" customFormat="1">
+    <row r="264" spans="1:10">
       <c r="C264" t="s">
         <v>15</v>
       </c>
@@ -2789,7 +2899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:10" customFormat="1">
+    <row r="265" spans="1:10">
       <c r="C265" t="s">
         <v>16</v>
       </c>
@@ -2797,7 +2907,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="266" spans="1:10" customFormat="1">
+    <row r="266" spans="1:10">
       <c r="C266" t="s">
         <v>17</v>
       </c>
@@ -2805,7 +2915,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="267" spans="1:10" customFormat="1">
+    <row r="267" spans="1:10">
       <c r="C267" t="s">
         <v>18</v>
       </c>
@@ -2813,23 +2923,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:10" customFormat="1">
+    <row r="268" spans="1:10">
       <c r="C268" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D268" s="4">
         <f>SUM(D258:D267)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" customFormat="1"/>
-    <row r="270" spans="1:10" customFormat="1"/>
-    <row r="271" spans="1:10" customFormat="1">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
       <c r="A271">
         <v>19</v>
       </c>
       <c r="B271" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
@@ -2841,18 +2949,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:10" customFormat="1">
-      <c r="C272" t="s">
-        <v>8</v>
+    <row r="272" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C272" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="D272">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J272" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:10" customFormat="1">
+    <row r="273" spans="1:10">
       <c r="C273" t="s">
         <v>10</v>
       </c>
@@ -2863,7 +2971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:10" customFormat="1">
+    <row r="274" spans="1:10">
       <c r="C274" t="s">
         <v>13</v>
       </c>
@@ -2871,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:10" customFormat="1">
+    <row r="275" spans="1:10">
       <c r="C275" t="s">
         <v>12</v>
       </c>
@@ -2879,7 +2987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:10" customFormat="1">
+    <row r="276" spans="1:10">
       <c r="C276" t="s">
         <v>14</v>
       </c>
@@ -2887,7 +2995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:10" customFormat="1">
+    <row r="277" spans="1:10">
       <c r="C277" t="s">
         <v>15</v>
       </c>
@@ -2895,7 +3003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:10" customFormat="1">
+    <row r="278" spans="1:10">
       <c r="C278" t="s">
         <v>16</v>
       </c>
@@ -2903,7 +3011,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="279" spans="1:10" customFormat="1">
+    <row r="279" spans="1:10">
       <c r="C279" t="s">
         <v>17</v>
       </c>
@@ -2911,7 +3019,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="280" spans="1:10" customFormat="1">
+    <row r="280" spans="1:10">
       <c r="C280" t="s">
         <v>18</v>
       </c>
@@ -2919,23 +3027,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:10" customFormat="1">
+    <row r="281" spans="1:10">
       <c r="C281" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D281" s="4">
         <f>SUM(D271:D280)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" customFormat="1"/>
-    <row r="283" spans="1:10" customFormat="1"/>
-    <row r="284" spans="1:10" customFormat="1">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10">
       <c r="A284">
         <v>20</v>
       </c>
       <c r="B284" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C284" t="s">
         <v>6</v>
@@ -2947,18 +3053,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:10" customFormat="1">
-      <c r="C285" t="s">
-        <v>8</v>
+    <row r="285" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C285" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="D285">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J285" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:10" customFormat="1">
+    <row r="286" spans="1:10">
       <c r="C286" t="s">
         <v>10</v>
       </c>
@@ -2969,7 +3075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:10" customFormat="1">
+    <row r="287" spans="1:10">
       <c r="C287" t="s">
         <v>13</v>
       </c>
@@ -2977,7 +3083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:10" customFormat="1">
+    <row r="288" spans="1:10">
       <c r="C288" t="s">
         <v>12</v>
       </c>
@@ -2985,7 +3091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:10" customFormat="1">
+    <row r="289" spans="1:10">
       <c r="C289" t="s">
         <v>14</v>
       </c>
@@ -2993,7 +3099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:10" customFormat="1">
+    <row r="290" spans="1:10">
       <c r="C290" t="s">
         <v>15</v>
       </c>
@@ -3001,7 +3107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:10" customFormat="1">
+    <row r="291" spans="1:10">
       <c r="C291" t="s">
         <v>16</v>
       </c>
@@ -3009,7 +3115,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="292" spans="1:10" customFormat="1">
+    <row r="292" spans="1:10">
       <c r="C292" t="s">
         <v>17</v>
       </c>
@@ -3017,7 +3123,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="293" spans="1:10" customFormat="1">
+    <row r="293" spans="1:10">
       <c r="C293" t="s">
         <v>18</v>
       </c>
@@ -3025,23 +3131,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:10" customFormat="1">
+    <row r="294" spans="1:10">
       <c r="C294" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D294" s="4">
         <f>SUM(D284:D293)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" customFormat="1"/>
-    <row r="296" spans="1:10" customFormat="1"/>
-    <row r="297" spans="1:10" customFormat="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10">
       <c r="A297">
         <v>21</v>
       </c>
       <c r="B297" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C297" t="s">
         <v>6</v>
@@ -3053,66 +3157,66 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:10" customFormat="1">
-      <c r="C298" t="s">
-        <v>8</v>
+    <row r="298" spans="1:10" ht="75" customHeight="1">
+      <c r="C298" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D298">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J298" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:10" customFormat="1">
+    <row r="299" spans="1:10">
       <c r="C299" t="s">
         <v>10</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J299" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:10" customFormat="1">
+    <row r="300" spans="1:10">
       <c r="C300" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:10" customFormat="1">
+    <row r="301" spans="1:10">
       <c r="C301" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D301">
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:10" customFormat="1">
+    <row r="302" spans="1:10">
       <c r="C302" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D302">
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:10" customFormat="1">
+    <row r="303" spans="1:10">
       <c r="C303" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D303">
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:10" customFormat="1">
+    <row r="304" spans="1:10">
       <c r="C304" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D304">
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:10" customFormat="1">
+    <row r="305" spans="1:10">
       <c r="C305" t="s">
         <v>12</v>
       </c>
@@ -3120,15 +3224,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:10" customFormat="1">
+    <row r="306" spans="1:10">
       <c r="C306" t="s">
         <v>15</v>
       </c>
       <c r="D306">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" customFormat="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10">
       <c r="C307" t="s">
         <v>16</v>
       </c>
@@ -3136,7 +3240,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="308" spans="1:10" customFormat="1">
+    <row r="308" spans="1:10">
       <c r="C308" t="s">
         <v>17</v>
       </c>
@@ -3144,7 +3248,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="309" spans="1:10" customFormat="1">
+    <row r="309" spans="1:10">
       <c r="C309" t="s">
         <v>18</v>
       </c>
@@ -3152,23 +3256,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:10" customFormat="1">
+    <row r="310" spans="1:10">
       <c r="C310" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D310" s="4">
         <f>SUM(D297:D309)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" customFormat="1"/>
-    <row r="312" spans="1:10" customFormat="1"/>
-    <row r="313" spans="1:10" customFormat="1">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10">
       <c r="A313">
         <v>22</v>
       </c>
       <c r="B313" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C313" t="s">
         <v>6</v>
@@ -3180,58 +3282,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:10" customFormat="1">
-      <c r="C314" t="s">
-        <v>8</v>
+    <row r="314" spans="1:10" ht="72.75" customHeight="1">
+      <c r="C314" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D314">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J314" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:10" customFormat="1">
+    <row r="315" spans="1:10">
       <c r="C315" t="s">
         <v>10</v>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:10" customFormat="1">
+    <row r="316" spans="1:10">
       <c r="C316" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:10" customFormat="1">
+    <row r="317" spans="1:10">
       <c r="C317" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D317">
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:10" customFormat="1">
+    <row r="318" spans="1:10">
       <c r="C318" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D318">
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:10" customFormat="1">
+    <row r="319" spans="1:10">
       <c r="C319" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D319">
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:10" customFormat="1">
+    <row r="320" spans="1:10">
       <c r="C320" t="s">
         <v>12</v>
       </c>
@@ -3239,7 +3341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:10" customFormat="1">
+    <row r="321" spans="1:10">
       <c r="C321" t="s">
         <v>14</v>
       </c>
@@ -3247,7 +3349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:10" customFormat="1">
+    <row r="322" spans="1:10">
       <c r="C322" t="s">
         <v>15</v>
       </c>
@@ -3255,7 +3357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:10" customFormat="1">
+    <row r="323" spans="1:10">
       <c r="C323" t="s">
         <v>16</v>
       </c>
@@ -3263,7 +3365,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="324" spans="1:10" customFormat="1">
+    <row r="324" spans="1:10">
       <c r="C324" t="s">
         <v>17</v>
       </c>
@@ -3271,7 +3373,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="325" spans="1:10" customFormat="1">
+    <row r="325" spans="1:10">
       <c r="C325" t="s">
         <v>18</v>
       </c>
@@ -3279,23 +3381,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:10" customFormat="1">
+    <row r="326" spans="1:10">
       <c r="C326" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D326" s="4">
         <f>SUM(D313:D325)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" customFormat="1"/>
-    <row r="328" spans="1:10" customFormat="1"/>
-    <row r="329" spans="1:10" customFormat="1">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10">
       <c r="A329">
         <v>23</v>
       </c>
       <c r="B329" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C329" t="s">
         <v>6</v>
@@ -3307,9 +3407,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:10" customFormat="1">
-      <c r="C330" t="s">
-        <v>8</v>
+    <row r="330" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C330" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="D330">
         <v>3</v>
@@ -3318,18 +3418,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:10" customFormat="1">
+    <row r="331" spans="1:10">
       <c r="C331" t="s">
         <v>10</v>
       </c>
       <c r="D331">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J331" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:10" customFormat="1">
+    <row r="332" spans="1:10">
       <c r="C332" t="s">
         <v>12</v>
       </c>
@@ -3337,7 +3437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:10" customFormat="1">
+    <row r="333" spans="1:10">
       <c r="C333" t="s">
         <v>13</v>
       </c>
@@ -3345,7 +3445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:10" customFormat="1">
+    <row r="334" spans="1:10">
       <c r="C334" t="s">
         <v>14</v>
       </c>
@@ -3353,7 +3453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:10" customFormat="1">
+    <row r="335" spans="1:10">
       <c r="C335" t="s">
         <v>15</v>
       </c>
@@ -3361,7 +3461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:10" customFormat="1">
+    <row r="336" spans="1:10">
       <c r="C336" t="s">
         <v>16</v>
       </c>
@@ -3369,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:10" customFormat="1">
+    <row r="337" spans="1:10">
       <c r="C337" t="s">
         <v>17</v>
       </c>
@@ -3377,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:10" customFormat="1">
+    <row r="338" spans="1:10">
       <c r="C338" t="s">
         <v>18</v>
       </c>
@@ -3385,24 +3485,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:10" customFormat="1"/>
-    <row r="340" spans="1:10" customFormat="1">
+    <row r="340" spans="1:10">
       <c r="C340" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D340" s="4">
         <f>SUM(D329:D339)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10" customFormat="1"/>
-    <row r="342" spans="1:10" customFormat="1"/>
-    <row r="343" spans="1:10" customFormat="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10">
       <c r="A343">
         <v>24</v>
       </c>
       <c r="B343" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C343" t="s">
         <v>6</v>
@@ -3414,9 +3511,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:10" customFormat="1">
-      <c r="C344" t="s">
-        <v>8</v>
+    <row r="344" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C344" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="D344">
         <v>3</v>
@@ -3425,18 +3522,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:10" customFormat="1">
+    <row r="345" spans="1:10">
       <c r="C345" t="s">
         <v>10</v>
       </c>
       <c r="D345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J345" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:10" customFormat="1">
+    <row r="346" spans="1:10">
       <c r="C346" t="s">
         <v>12</v>
       </c>
@@ -3444,7 +3541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:10" customFormat="1">
+    <row r="347" spans="1:10">
       <c r="C347" t="s">
         <v>13</v>
       </c>
@@ -3452,7 +3549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:10" customFormat="1">
+    <row r="348" spans="1:10">
       <c r="C348" t="s">
         <v>14</v>
       </c>
@@ -3460,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:10" customFormat="1">
+    <row r="349" spans="1:10">
       <c r="C349" t="s">
         <v>15</v>
       </c>
@@ -3468,7 +3565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:10" customFormat="1">
+    <row r="350" spans="1:10">
       <c r="C350" t="s">
         <v>16</v>
       </c>
@@ -3476,7 +3573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:10" customFormat="1">
+    <row r="351" spans="1:10">
       <c r="C351" t="s">
         <v>17</v>
       </c>
@@ -3484,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:10" customFormat="1">
+    <row r="352" spans="1:10">
       <c r="C352" t="s">
         <v>18</v>
       </c>
@@ -3492,24 +3589,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:10" customFormat="1"/>
-    <row r="354" spans="1:10" customFormat="1">
+    <row r="354" spans="1:10">
       <c r="C354" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D354" s="4">
         <f>SUM(D343:D353)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="355" spans="1:10" customFormat="1"/>
-    <row r="356" spans="1:10" customFormat="1"/>
-    <row r="357" spans="1:10" customFormat="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10">
       <c r="A357">
         <v>25</v>
       </c>
       <c r="B357" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C357" t="s">
         <v>6</v>
@@ -3521,42 +3615,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:10" customFormat="1">
-      <c r="C358" t="s">
-        <v>8</v>
+    <row r="358" spans="1:10" ht="73.5" customHeight="1">
+      <c r="C358" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="D358">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="J358" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:10" customFormat="1">
+    <row r="359" spans="1:10">
       <c r="C359" t="s">
         <v>10</v>
       </c>
       <c r="D359">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J359" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:10" customFormat="1">
+    <row r="360" spans="1:10">
       <c r="C360" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:10" customFormat="1">
+    <row r="361" spans="1:10">
       <c r="C361" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D361">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="362" spans="1:10" customFormat="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10">
       <c r="C362" t="s">
         <v>12</v>
       </c>
@@ -3564,7 +3658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:10" customFormat="1">
+    <row r="363" spans="1:10">
       <c r="C363" t="s">
         <v>14</v>
       </c>
@@ -3572,15 +3666,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:10" customFormat="1">
+    <row r="364" spans="1:10">
       <c r="C364" t="s">
         <v>15</v>
       </c>
       <c r="D364">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="365" spans="1:10" customFormat="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10">
       <c r="C365" t="s">
         <v>16</v>
       </c>
@@ -3588,7 +3682,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="366" spans="1:10" customFormat="1">
+    <row r="366" spans="1:10">
       <c r="C366" t="s">
         <v>17</v>
       </c>
@@ -3596,7 +3690,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="367" spans="1:10" customFormat="1">
+    <row r="367" spans="1:10">
       <c r="C367" t="s">
         <v>18</v>
       </c>
@@ -3604,23 +3698,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:10" customFormat="1">
+    <row r="368" spans="1:10">
       <c r="C368" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D368" s="4">
         <f>SUM(D357:D367)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10" customFormat="1"/>
-    <row r="370" spans="1:10" customFormat="1"/>
-    <row r="371" spans="1:10" customFormat="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10">
       <c r="A371">
         <v>26</v>
       </c>
       <c r="B371" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C371" t="s">
         <v>6</v>
@@ -3632,42 +3724,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:10" customFormat="1">
-      <c r="C372" t="s">
-        <v>8</v>
+    <row r="372" spans="1:10" ht="74.25" customHeight="1">
+      <c r="C372" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="D372">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J372" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:10" customFormat="1">
+    <row r="373" spans="1:10">
       <c r="C373" t="s">
         <v>10</v>
       </c>
       <c r="D373">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J373" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:10" customFormat="1">
+    <row r="374" spans="1:10">
       <c r="C374" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:10" customFormat="1">
+    <row r="375" spans="1:10">
       <c r="C375" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D375">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10">
       <c r="C376" t="s">
         <v>12</v>
       </c>
@@ -3675,7 +3767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:10" customFormat="1">
+    <row r="377" spans="1:10">
       <c r="C377" t="s">
         <v>14</v>
       </c>
@@ -3683,15 +3775,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:10" customFormat="1">
+    <row r="378" spans="1:10">
       <c r="C378" t="s">
         <v>15</v>
       </c>
       <c r="D378">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10" customFormat="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10">
       <c r="C379" t="s">
         <v>16</v>
       </c>
@@ -3699,7 +3791,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="380" spans="1:10" customFormat="1">
+    <row r="380" spans="1:10">
       <c r="C380" t="s">
         <v>17</v>
       </c>
@@ -3707,7 +3799,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="381" spans="1:10" customFormat="1">
+    <row r="381" spans="1:10">
       <c r="C381" t="s">
         <v>18</v>
       </c>
@@ -3715,270 +3807,124 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:10" customFormat="1">
+    <row r="382" spans="1:10">
       <c r="C382" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D382" s="4">
         <f>SUM(D371:D381)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" customFormat="1"/>
-    <row r="384" spans="1:10" customFormat="1"/>
-    <row r="385" spans="1:10" customFormat="1">
-      <c r="A385">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387">
         <v>27</v>
       </c>
-      <c r="B385" t="s">
-        <v>89</v>
-      </c>
-      <c r="C385" t="s">
+      <c r="B387" t="s">
+        <v>110</v>
+      </c>
+      <c r="C387" t="s">
         <v>6</v>
       </c>
-      <c r="D385">
-        <v>2</v>
-      </c>
-      <c r="J385" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="386" spans="1:10" customFormat="1">
-      <c r="C386" t="s">
-        <v>8</v>
-      </c>
-      <c r="D386">
-        <v>3</v>
-      </c>
-      <c r="J386" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="387" spans="1:10" customFormat="1">
-      <c r="C387" t="s">
+      <c r="D387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="73.5" customHeight="1">
+      <c r="C388" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D388">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="C389" t="s">
         <v>10</v>
       </c>
-      <c r="D387">
-        <v>0.5</v>
-      </c>
-      <c r="J387" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="388" spans="1:10" customFormat="1">
-      <c r="C388" t="s">
+      <c r="D389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="C390" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="C391" t="s">
+        <v>112</v>
+      </c>
+      <c r="D391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="C392" t="s">
         <v>12</v>
       </c>
-      <c r="D388">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:10" customFormat="1">
-      <c r="C389" t="s">
-        <v>13</v>
-      </c>
-      <c r="D389">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="390" spans="1:10" customFormat="1">
-      <c r="C390" t="s">
+      <c r="D392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="C393" t="s">
         <v>14</v>
       </c>
-      <c r="D390">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:10" customFormat="1">
-      <c r="C391" t="s">
+      <c r="D393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="C394" t="s">
         <v>15</v>
       </c>
-      <c r="D391">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="392" spans="1:10" customFormat="1">
-      <c r="C392" t="s">
+      <c r="D394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="C395" t="s">
         <v>16</v>
       </c>
-      <c r="D392">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:10" customFormat="1">
-      <c r="C393" t="s">
+      <c r="D395">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="C396" t="s">
         <v>17</v>
       </c>
-      <c r="D393">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:10" customFormat="1">
-      <c r="C394" t="s">
+      <c r="D396">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="C397" t="s">
         <v>18</v>
       </c>
-      <c r="D394">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="395" spans="1:10" customFormat="1"/>
-    <row r="396" spans="1:10" customFormat="1">
-      <c r="C396" s="4" t="s">
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="C399" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D396" s="4">
-        <f>SUM(D385:D395)</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="397" spans="1:10" customFormat="1"/>
-    <row r="398" spans="1:10" customFormat="1"/>
-    <row r="399" spans="1:10" customFormat="1">
-      <c r="A399">
-        <v>28</v>
-      </c>
-      <c r="B399" t="s">
-        <v>90</v>
-      </c>
-      <c r="C399" t="s">
-        <v>6</v>
-      </c>
-      <c r="D399">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="400" spans="1:10" customFormat="1">
-      <c r="C400" t="s">
-        <v>8</v>
-      </c>
-      <c r="D400">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="401" spans="3:4" customFormat="1">
-      <c r="C401" t="s">
-        <v>10</v>
-      </c>
-      <c r="D401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="3:4" customFormat="1">
-      <c r="C402" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="403" spans="3:4" customFormat="1">
-      <c r="C403" t="s">
-        <v>91</v>
-      </c>
-      <c r="D403">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="404" spans="3:4" customFormat="1">
-      <c r="C404" t="s">
-        <v>12</v>
-      </c>
-      <c r="D404">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="405" spans="3:4" customFormat="1">
-      <c r="C405" t="s">
-        <v>14</v>
-      </c>
-      <c r="D405">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="406" spans="3:4" customFormat="1">
-      <c r="C406" t="s">
-        <v>15</v>
-      </c>
-      <c r="D406">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="407" spans="3:4" customFormat="1">
-      <c r="C407" t="s">
-        <v>16</v>
-      </c>
-      <c r="D407">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="408" spans="3:4" customFormat="1">
-      <c r="C408" t="s">
-        <v>17</v>
-      </c>
-      <c r="D408">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="409" spans="3:4" customFormat="1">
-      <c r="C409" t="s">
-        <v>18</v>
-      </c>
-      <c r="D409">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="410" spans="3:4" customFormat="1"/>
-    <row r="411" spans="3:4" customFormat="1">
-      <c r="C411" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D411" s="4">
-        <f>SUM(D399:D410)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="412" spans="3:4" customFormat="1"/>
-    <row r="413" spans="3:4" customFormat="1"/>
-    <row r="414" spans="3:4" customFormat="1">
-      <c r="C414" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D414" s="3">
-        <f>SUM(D396,D411,D382,D368,D354,D340,D326,D310,D294,D281,D268,D255,D242,D227,D213,D198,D184,D166,D150,D131,D117,D103,D89,D75,D61,D42,D28,D13)</f>
-        <v>689.5</v>
-      </c>
-    </row>
-    <row r="415" spans="3:4" customFormat="1"/>
-    <row r="416" spans="3:4" customFormat="1"/>
-    <row r="417" customFormat="1"/>
-    <row r="418" customFormat="1"/>
-    <row r="419" customFormat="1"/>
-    <row r="420" customFormat="1"/>
-    <row r="421" customFormat="1"/>
-    <row r="422" customFormat="1"/>
-    <row r="423" customFormat="1"/>
-    <row r="424" customFormat="1"/>
-    <row r="425" customFormat="1"/>
-    <row r="426" customFormat="1"/>
-    <row r="427" customFormat="1"/>
-    <row r="428" customFormat="1"/>
-    <row r="429" customFormat="1"/>
-    <row r="430" customFormat="1"/>
-    <row r="431" customFormat="1"/>
-    <row r="432" customFormat="1"/>
-    <row r="433" customFormat="1"/>
-    <row r="434" customFormat="1"/>
-    <row r="435" customFormat="1"/>
-    <row r="436" customFormat="1"/>
-    <row r="437" customFormat="1"/>
-    <row r="438" customFormat="1"/>
-    <row r="439" customFormat="1"/>
-    <row r="440" customFormat="1"/>
-    <row r="441" customFormat="1"/>
-    <row r="442" customFormat="1"/>
-    <row r="443" customFormat="1"/>
-    <row r="444" customFormat="1"/>
-    <row r="445" customFormat="1"/>
-    <row r="446" customFormat="1"/>
-    <row r="447" customFormat="1"/>
-    <row r="448" customFormat="1"/>
+      <c r="D399" s="4">
+        <f>SUM(D387:D398)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="402" spans="3:4">
+      <c r="C402" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D402" s="3">
+        <f>SUM(D399,D382,D368,D354,D340,D326,D310,D294,D281,D268,D255,D242,D227,D213,D198,D184,D166,D150,D131,D117,D103,D89,D75,D61,D42,D28,D13)</f>
+        <v>788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
